--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.2685672815</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.2685672815</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112972724.456397</v>
+        <v>46169292.36593034</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9821.942038525436</v>
+        <v>1102647.991861995</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18435.08221454739</v>
+        <v>2015696.346103126</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27048.22239056934</v>
+        <v>2928744.700344258</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35686.21717326406</v>
+        <v>3841793.05458539</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44324.21195595878</v>
+        <v>4754841.408826522</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52962.20673865351</v>
+        <v>5667889.763067652</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61600.20152134822</v>
+        <v>6580938.117308781</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70238.19630404295</v>
+        <v>7493986.471549908</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78876.19108673766</v>
+        <v>8407034.825791037</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87514.18586943213</v>
+        <v>9320083.180032164</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96152.18065212682</v>
+        <v>10233131.5342733</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104790.1754348215</v>
+        <v>11146179.88851444</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113428.1702175162</v>
+        <v>12059228.24275557</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122066.1650002109</v>
+        <v>12972276.59699671</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130704.1597829056</v>
+        <v>13885324.95123785</v>
       </c>
     </row>
   </sheetData>
